--- a/db_v1/schema.xlsx
+++ b/db_v1/schema.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Bait\ovpl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Bait\ovpl\ovpl_v1\db_v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="45">
   <si>
     <t>team_id</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>wicket_name</t>
+  </si>
+  <si>
+    <t>overs_per_inn</t>
+  </si>
+  <si>
+    <t>max_overs_bowler</t>
   </si>
 </sst>
 </file>
@@ -184,7 +190,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -207,17 +213,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,7 +519,7 @@
   <dimension ref="A2:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,7 +533,7 @@
     <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.33203125" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3.6640625" customWidth="1"/>
     <col min="13" max="13" width="12.88671875" bestFit="1" customWidth="1"/>
@@ -526,30 +544,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="E2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="H2" s="3"/>
+      <c r="J2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="M2" s="2" t="s">
+      <c r="K2" s="3"/>
+      <c r="M2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="P2" s="2" t="s">
+      <c r="N2" s="3"/>
+      <c r="P2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="2"/>
+      <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -605,7 +623,7 @@
       <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -643,7 +661,7 @@
       <c r="G5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -678,10 +696,10 @@
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -713,7 +731,7 @@
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -751,7 +769,7 @@
       <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -780,10 +798,10 @@
       <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="1" t="s">
+      <c r="J9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="P9" s="1" t="s">
@@ -800,11 +818,11 @@
       <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>7</v>
+      <c r="J10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>39</v>
@@ -815,10 +833,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="J11" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>4</v>
@@ -829,10 +847,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="J12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>5</v>
@@ -841,11 +859,25 @@
         <v>8</v>
       </c>
     </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="J14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -881,13 +913,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
